--- a/q1/results/results_xgboost_2ap.xlsx
+++ b/q1/results/results_xgboost_2ap.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="feature_importances" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mse" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="r2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="best_params" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5933016538619995</v>
+        <v>0.8173505663871765</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -479,7 +480,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3287165462970734</v>
+        <v>-0.4106777608394623</v>
       </c>
       <c r="D3" t="n">
         <v>-1</v>
@@ -495,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1560754030942917</v>
+        <v>-0.178337961435318</v>
       </c>
       <c r="D4" t="n">
         <v>-1</v>
@@ -503,47 +504,47 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>ap_from_ap_max_rssi_mean</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09476765245199203</v>
+        <v>-0.05472378805279732</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.0374501533806324</v>
+        <v>0.03865590691566467</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.02266450598835945</v>
+        <v>-0.03831629827618599</v>
       </c>
       <c r="D7" t="n">
         <v>-1</v>
@@ -551,15 +552,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_mean</t>
+          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01924616284668446</v>
+        <v>-0.02797381021082401</v>
       </c>
       <c r="D8" t="n">
         <v>-1</v>
@@ -567,15 +568,15 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.01827915944159031</v>
+        <v>-0.02646394073963165</v>
       </c>
       <c r="D9" t="n">
         <v>-1</v>
@@ -591,7 +592,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01767939701676369</v>
+        <v>-0.02599337697029114</v>
       </c>
       <c r="D10" t="n">
         <v>-1</v>
@@ -599,31 +600,31 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_var</t>
+          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.0150010334327817</v>
+        <v>0.02395154908299446</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.01154935173690319</v>
+        <v>-0.02156724594533443</v>
       </c>
       <c r="D12" t="n">
         <v>-1</v>
@@ -631,31 +632,31 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_median</t>
+          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01129526272416115</v>
+        <v>-0.01965194568037987</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01111346669495106</v>
+        <v>-0.01823424734175205</v>
       </c>
       <c r="D14" t="n">
         <v>-1</v>
@@ -663,47 +664,47 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01094159111380577</v>
+        <v>0.01529491972178221</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>protocol_tcp</t>
+          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01000514905899763</v>
+        <v>-0.01452181022614241</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.009189581498503685</v>
+        <v>-0.01299709640443325</v>
       </c>
       <c r="D17" t="n">
         <v>-1</v>
@@ -711,63 +712,63 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.007722185458987951</v>
+        <v>0.01170906703919172</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.007653847336769104</v>
+        <v>-0.01165974512696266</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.007547187618911266</v>
+        <v>0.01065090484917164</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.007430865429341793</v>
+        <v>-0.009736771695315838</v>
       </c>
       <c r="D21" t="n">
         <v>-1</v>
@@ -775,15 +776,15 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.007163549307733774</v>
+        <v>0.008700596168637276</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -791,15 +792,15 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.006971626542508602</v>
+        <v>0.008446593768894672</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -807,15 +808,15 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.006937280297279358</v>
+        <v>0.008198732510209084</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -823,31 +824,31 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_median</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.006779477000236511</v>
+        <v>-0.007823944091796875</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_length</t>
+          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.006726363208144903</v>
+        <v>0.007747834082692862</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -855,15 +856,15 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.00667369831353426</v>
+        <v>-0.007741610519587994</v>
       </c>
       <c r="D27" t="n">
         <v>-1</v>
@@ -871,47 +872,47 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006248351186513901</v>
+        <v>0.007638510316610336</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.006127300206571817</v>
+        <v>0.007431290112435818</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
+          <t>sta_to_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.006073490250855684</v>
+        <v>0.007277951575815678</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -919,63 +920,63 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.005722674075514078</v>
+        <v>-0.00684017688035965</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sinr</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.005310533102601767</v>
+        <v>-0.006680971477180719</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_mean</t>
+          <t>sta_to_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.005294210743159056</v>
+        <v>-0.006428862921893597</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_var</t>
+          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.005057369824498892</v>
+        <v>-0.005932461470365524</v>
       </c>
       <c r="D34" t="n">
         <v>-1</v>
@@ -983,15 +984,15 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_range</t>
+          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.005013884510844946</v>
+        <v>-0.005867315921932459</v>
       </c>
       <c r="D35" t="n">
         <v>-1</v>
@@ -999,15 +1000,15 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_min</t>
+          <t>ap_from_ap_mean_rssi_trend</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.00475314212962985</v>
+        <v>-0.005811105947941542</v>
       </c>
       <c r="D36" t="n">
         <v>-1</v>
@@ -1015,63 +1016,63 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004728930536657572</v>
+        <v>-0.005385800264775753</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_autocorrelation</t>
+          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.004641362465918064</v>
+        <v>-0.005097526591271162</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>eirp</t>
+          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.004432747606188059</v>
+        <v>0.005040238611400127</v>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_max</t>
+          <t>sta_from_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.004087076056748629</v>
+        <v>0.004993483424186707</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1079,15 +1080,15 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.004046224057674408</v>
+        <v>-0.004875206388533115</v>
       </c>
       <c r="D41" t="n">
         <v>-1</v>
@@ -1095,15 +1096,15 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.004029213450849056</v>
+        <v>-0.004810146056115627</v>
       </c>
       <c r="D42" t="n">
         <v>-1</v>
@@ -1111,31 +1112,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.004010134376585484</v>
+        <v>-0.004740243311971426</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.003968095872551203</v>
+        <v>-0.00469704857096076</v>
       </c>
       <c r="D44" t="n">
         <v>-1</v>
@@ -1143,15 +1144,15 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_length</t>
+          <t>sta_to_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.003936109598726034</v>
+        <v>-0.004695518873631954</v>
       </c>
       <c r="D45" t="n">
         <v>-1</v>
@@ -1159,31 +1160,31 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_median</t>
+          <t>sta_to_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.003717964515089989</v>
+        <v>-0.004447969608008862</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_to_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.003576928051188588</v>
+        <v>0.004196143243461847</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1191,31 +1192,31 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00347461923956871</v>
+        <v>-0.004086257424205542</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.003442031564190984</v>
+        <v>-0.004059306345880032</v>
       </c>
       <c r="D49" t="n">
         <v>-1</v>
@@ -1223,47 +1224,47 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_max</t>
+          <t>sta_to_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.0033203165512532</v>
+        <v>0.003707705065608025</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.003206545021384954</v>
+        <v>-0.00367496651597321</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.003201053244993091</v>
+        <v>-0.00363464979454875</v>
       </c>
       <c r="D52" t="n">
         <v>-1</v>
@@ -1271,15 +1272,15 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.003191129770129919</v>
+        <v>-0.003411249490454793</v>
       </c>
       <c r="D53" t="n">
         <v>-1</v>
@@ -1287,15 +1288,15 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_var</t>
+          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.003071397077292204</v>
+        <v>-0.003285868791863322</v>
       </c>
       <c r="D54" t="n">
         <v>-1</v>
@@ -1303,31 +1304,31 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>protocol_tcp</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.00302934180945158</v>
+        <v>-0.003102359129115939</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.00290322327055037</v>
+        <v>-0.00301510700955987</v>
       </c>
       <c r="D56" t="n">
         <v>-1</v>
@@ -1335,15 +1336,15 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.002793104853481054</v>
+        <v>0.0029294160194695</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1351,15 +1352,15 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_grouping_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.002670575631782413</v>
+        <v>-0.002892971038818359</v>
       </c>
       <c r="D58" t="n">
         <v>-1</v>
@@ -1367,15 +1368,15 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.002599683124572039</v>
+        <v>-0.002874933648854494</v>
       </c>
       <c r="D59" t="n">
         <v>-1</v>
@@ -1383,47 +1384,47 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.002595952479168773</v>
+        <v>-0.002846901305019855</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.002541742753237486</v>
+        <v>-0.00279908673837781</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_median</t>
+          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.002368143759667873</v>
+        <v>0.002683773171156645</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1431,15 +1432,15 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_mean_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.002335828030481935</v>
+        <v>0.002611422445625067</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1447,15 +1448,15 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_median</t>
+          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.002271173289045691</v>
+        <v>0.002495634835213423</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1463,15 +1464,15 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.002267476869747043</v>
+        <v>0.002374916570261121</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1479,15 +1480,15 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>sta_to_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.002234888961538672</v>
+        <v>0.002359124133363366</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1495,15 +1496,15 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
+          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.002213306957855821</v>
+        <v>-0.002271342091262341</v>
       </c>
       <c r="D67" t="n">
         <v>-1</v>
@@ -1511,31 +1512,31 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.002187518868595362</v>
+        <v>0.00222538341768086</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.002143621910363436</v>
+        <v>0.002211568178609014</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1543,63 +1544,63 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.002117416355758905</v>
+        <v>0.002027718815952539</v>
       </c>
       <c r="D70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_entropy</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.002115328097715974</v>
+        <v>-0.001981979934498668</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.00210316781885922</v>
+        <v>0.001970604760572314</v>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.002091345610097051</v>
+        <v>-0.001941322349011898</v>
       </c>
       <c r="D73" t="n">
         <v>-1</v>
@@ -1607,15 +1608,15 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.002056965371593833</v>
+        <v>-0.001916610868647695</v>
       </c>
       <c r="D74" t="n">
         <v>-1</v>
@@ -1623,31 +1624,31 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001994539285078645</v>
+        <v>-0.001908625243231654</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_max</t>
+          <t>sta_to_ap_1_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.00197757501155138</v>
+        <v>0.001903413562104106</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1655,63 +1656,63 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.001877371920272708</v>
+        <v>0.001880773575976491</v>
       </c>
       <c r="D77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.001834081253036857</v>
+        <v>0.001878860057331622</v>
       </c>
       <c r="D78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.001822001882828772</v>
+        <v>0.001852732733823359</v>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_sinr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.001751162344589829</v>
+        <v>0.001838212832808495</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1719,47 +1720,47 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.001722587854601443</v>
+        <v>0.001810050802305341</v>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.001720177358947694</v>
+        <v>-0.001733216224238276</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_trend</t>
+          <t>sta_to_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.001698436914011836</v>
+        <v>0.00171828200109303</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1767,79 +1768,79 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.001648070057854056</v>
+        <v>-0.001704766065813601</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sinr</t>
+          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001632503815926611</v>
+        <v>-0.001623965101316571</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_max</t>
+          <t>eirp</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.001628474914468825</v>
+        <v>-0.001604539109393954</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_max</t>
+          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.001613649539649487</v>
+        <v>-0.001541791134513915</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_kurtosis</t>
+          <t>sta_to_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.001592176267877221</v>
+        <v>-0.001532899215817451</v>
       </c>
       <c r="D88" t="n">
         <v>-1</v>
@@ -1847,15 +1848,15 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.001534678158350289</v>
+        <v>-0.001462299027480185</v>
       </c>
       <c r="D89" t="n">
         <v>-1</v>
@@ -1863,15 +1864,15 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.001470104674808681</v>
+        <v>0.00144940079189837</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1879,15 +1880,15 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_var</t>
+          <t>sta_to_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.001469324110075831</v>
+        <v>0.001442792592570186</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1895,15 +1896,15 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.001467275782488286</v>
+        <v>0.00139024353120476</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1911,15 +1912,15 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_length</t>
+          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.001451503136195242</v>
+        <v>-0.001383921829983592</v>
       </c>
       <c r="D93" t="n">
         <v>-1</v>
@@ -1927,31 +1928,31 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_length</t>
+          <t>sta_from_ap_1_mean_ant_rssi_sinr</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.001382536021992564</v>
+        <v>0.001373377512209117</v>
       </c>
       <c r="D94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.001380320871248841</v>
+        <v>0.00136265077162534</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1959,15 +1960,15 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_max</t>
+          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.001361940638162196</v>
+        <v>-0.001342859235592186</v>
       </c>
       <c r="D96" t="n">
         <v>-1</v>
@@ -1975,15 +1976,15 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_mean_rssi_skewness</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0013148735743016</v>
+        <v>0.001341442344710231</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1991,15 +1992,15 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_min</t>
+          <t>sta_to_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.001305286656133831</v>
+        <v>0.001335834967903793</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2007,15 +2008,15 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.00123819918371737</v>
+        <v>-0.001268654363229871</v>
       </c>
       <c r="D99" t="n">
         <v>-1</v>
@@ -2023,15 +2024,15 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_length</t>
+          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.001228387467563152</v>
+        <v>-0.001266432926058769</v>
       </c>
       <c r="D100" t="n">
         <v>-1</v>
@@ -2039,15 +2040,15 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_trend</t>
+          <t>ap_from_ap_max_rssi_trend</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.001218333607539535</v>
+        <v>0.001256356365047395</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2055,15 +2056,15 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
+          <t>ap_from_ap_max_rssi_skewness</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.001201776089146733</v>
+        <v>-0.001142423832789063</v>
       </c>
       <c r="D102" t="n">
         <v>-1</v>
@@ -2079,39 +2080,39 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.001194654731079936</v>
+        <v>-0.001140148262493312</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.001194025739096105</v>
+        <v>-0.001131699071265757</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.001191172981634736</v>
+        <v>0.001107408897951245</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2119,31 +2120,31 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-0.001188011607155204</v>
+        <v>0.001043323427438736</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_min</t>
+          <t>ap_from_ap_max_rssi_range</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.00116938550490886</v>
+        <v>-0.001030359184369445</v>
       </c>
       <c r="D107" t="n">
         <v>-1</v>
@@ -2151,15 +2152,15 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.001167681068181992</v>
+        <v>0.0009734172490425408</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2167,31 +2168,31 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_median</t>
+          <t>ap_from_ap_mean_rssi_median</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.001148938201367855</v>
+        <v>0.0009212357690557837</v>
       </c>
       <c r="D109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.001053398475050926</v>
+        <v>0.000915094162337482</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2199,15 +2200,15 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_max_rssi_iqr</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.001033717300742865</v>
+        <v>-0.0009147432865574956</v>
       </c>
       <c r="D111" t="n">
         <v>-1</v>
@@ -2215,31 +2216,31 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_kurtosis</t>
+          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.001022855052724481</v>
+        <v>-0.0009018114651553333</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-0.0010214161593467</v>
+        <v>-0.0008825177210383117</v>
       </c>
       <c r="D113" t="n">
         <v>-1</v>
@@ -2247,63 +2248,63 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.001013642409816384</v>
+        <v>-0.0008822313393466175</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-0.001006298349238932</v>
+        <v>0.0008505758596584201</v>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_range</t>
+          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0009920455049723387</v>
+        <v>-0.000803142786026001</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_range</t>
+          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-0.0009731262689456344</v>
+        <v>-0.0008025176939554513</v>
       </c>
       <c r="D117" t="n">
         <v>-1</v>
@@ -2311,15 +2312,15 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_max_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0009571023983880877</v>
+        <v>0.0007677696412429214</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2327,15 +2328,15 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_rate_of_change</t>
+          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.0009386440506204963</v>
+        <v>-0.0007528490386903286</v>
       </c>
       <c r="D119" t="n">
         <v>-1</v>
@@ -2343,31 +2344,31 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_length</t>
+          <t>sta_from_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0009237884660251439</v>
+        <v>-0.000745844270568341</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.0009183239308185875</v>
+        <v>-0.000732187763787806</v>
       </c>
       <c r="D121" t="n">
         <v>-1</v>
@@ -2375,15 +2376,15 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-0.0009012235095724463</v>
+        <v>-0.0007220178958959877</v>
       </c>
       <c r="D122" t="n">
         <v>-1</v>
@@ -2391,47 +2392,47 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
+          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.0008932837517932057</v>
+        <v>-0.0007204104331322014</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.0008492715423926711</v>
+        <v>0.0006913535762578249</v>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0008484151330776513</v>
+        <v>0.0006779712275601923</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -2439,15 +2440,15 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-0.0008420742815360427</v>
+        <v>-0.0006683500250801444</v>
       </c>
       <c r="D126" t="n">
         <v>-1</v>
@@ -2455,15 +2456,15 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.0008398977224715054</v>
+        <v>-0.0006668675923720002</v>
       </c>
       <c r="D127" t="n">
         <v>-1</v>
@@ -2471,47 +2472,47 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_var</t>
+          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-0.00083541328785941</v>
+        <v>0.0006525631761178374</v>
       </c>
       <c r="D128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_mean_rssi_min</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0007568352157250047</v>
+        <v>-0.0006400577258318663</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
+          <t>ap_from_ap_max_rssi_length</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.0007531473529525101</v>
+        <v>-0.0006375223165377975</v>
       </c>
       <c r="D130" t="n">
         <v>-1</v>
@@ -2519,15 +2520,15 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_median</t>
+          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.0007495227036997676</v>
+        <v>-0.0006153918220661581</v>
       </c>
       <c r="D131" t="n">
         <v>-1</v>
@@ -2535,15 +2536,15 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_median</t>
+          <t>sta_from_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0007261358550749719</v>
+        <v>0.0006134413997642696</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -2559,23 +2560,23 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.0007220712723210454</v>
+        <v>0.0006062387255951762</v>
       </c>
       <c r="D133" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_min</t>
+          <t>sta_to_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.0006817331304773688</v>
+        <v>-0.0005841333186253905</v>
       </c>
       <c r="D134" t="n">
         <v>-1</v>
@@ -2583,47 +2584,47 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_mean_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0006628716364502907</v>
+        <v>-0.0005738947656936944</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0006120647885836661</v>
+        <v>-0.0005719388136640191</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_var</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.000609195267315954</v>
+        <v>-0.0005707039381377399</v>
       </c>
       <c r="D137" t="n">
         <v>-1</v>
@@ -2631,31 +2632,31 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.0005990117788314819</v>
+        <v>-0.0005489485338330269</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_range</t>
+          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.0005760571802966297</v>
+        <v>-0.0005432873731479049</v>
       </c>
       <c r="D139" t="n">
         <v>-1</v>
@@ -2663,95 +2664,95 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_min</t>
+          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.0005625180201604962</v>
+        <v>0.000539330649189651</v>
       </c>
       <c r="D140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.0004945021355524659</v>
+        <v>-0.0005268662935122848</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.0004918745835311711</v>
+        <v>0.000490425038151443</v>
       </c>
       <c r="D142" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.0004529635771177709</v>
+        <v>-0.0004750125226564705</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_trend</t>
+          <t>ap_from_ap_max_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.0004515915061347187</v>
+        <v>-0.0004624912980943918</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
+          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.0004152997862547636</v>
+        <v>-0.000456411624327302</v>
       </c>
       <c r="D145" t="n">
         <v>-1</v>
@@ -2759,79 +2760,79 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.0003871862718369812</v>
+        <v>-0.0004538586945272982</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-0.0003807578177656978</v>
+        <v>0.000435579102486372</v>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_length</t>
+          <t>sta_to_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.0003728520823642612</v>
+        <v>-0.0003997333406005055</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.0003716461360454559</v>
+        <v>0.0003802213468588889</v>
       </c>
       <c r="D149" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_max</t>
+          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-0.0003698522923514247</v>
+        <v>-0.0003736138751264662</v>
       </c>
       <c r="D150" t="n">
         <v>-1</v>
@@ -2839,15 +2840,15 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.0003490166272968054</v>
+        <v>-0.0003673856263048947</v>
       </c>
       <c r="D151" t="n">
         <v>-1</v>
@@ -2855,79 +2856,79 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_var</t>
+          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-0.0003400546847842634</v>
+        <v>0.0003334164794068784</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_max</t>
+          <t>ap_from_ap_mean_rssi_var</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.0003374134539626539</v>
+        <v>0.0003064263728447258</v>
       </c>
       <c r="D153" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.000335813092533499</v>
+        <v>-0.0002970654459204525</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.0003155054873786867</v>
+        <v>-0.0002946995082311332</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.0002934497897513211</v>
+        <v>0.0002822546230163425</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2935,15 +2936,15 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_approximate_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.0002795633918140084</v>
+        <v>0.000276148522971198</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2951,15 +2952,15 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_length</t>
+          <t>ap_from_ap_max_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0002661465259734541</v>
+        <v>0.0002482366689946502</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2967,15 +2968,15 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_mean</t>
+          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.0002589008654467762</v>
+        <v>-0.000248208234552294</v>
       </c>
       <c r="D159" t="n">
         <v>-1</v>
@@ -2983,15 +2984,15 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_range</t>
+          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.0002575035323388875</v>
+        <v>0.0002359764184802771</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -2999,15 +3000,15 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
+          <t>ap_from_ap_mean_rssi_max</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-0.0002178640133934096</v>
+        <v>-0.0002345969842281193</v>
       </c>
       <c r="D161" t="n">
         <v>-1</v>
@@ -3015,47 +3016,47 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_min</t>
+          <t>ap_from_ap_max_rssi_min</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-0.0002165878831874579</v>
+        <v>0.0002254681603517383</v>
       </c>
       <c r="D162" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
+          <t>ap_from_ap_max_rssi_max</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0002102760772686452</v>
+        <v>-0.0002253896527690813</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0001964580733329058</v>
+        <v>0.0002199261944042519</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3063,31 +3064,31 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_var</t>
+          <t>sta_from_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-0.0001944368705153465</v>
+        <v>0.0002163016470149159</v>
       </c>
       <c r="D165" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-0.0001910616992972791</v>
+        <v>-0.000214553321711719</v>
       </c>
       <c r="D166" t="n">
         <v>-1</v>
@@ -3095,15 +3096,15 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0001577614311827347</v>
+        <v>0.0002034861099673435</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3111,15 +3112,15 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.000131348759168759</v>
+        <v>0.0001933267631102353</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -3127,15 +3128,15 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.0001129841766669415</v>
+        <v>0.0001908676058519632</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3143,31 +3144,31 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-0.0001080289002857171</v>
+        <v>0.0001686090399743989</v>
       </c>
       <c r="D170" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-7.515233301091939e-05</v>
+        <v>-0.0001621578121557832</v>
       </c>
       <c r="D171" t="n">
         <v>-1</v>
@@ -3175,15 +3176,15 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-6.003452654113062e-05</v>
+        <v>-0.0001500195794505998</v>
       </c>
       <c r="D172" t="n">
         <v>-1</v>
@@ -3191,15 +3192,15 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_mean_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-5.425945710157976e-05</v>
+        <v>-0.0001399480534018949</v>
       </c>
       <c r="D173" t="n">
         <v>-1</v>
@@ -3207,15 +3208,15 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-4.759627699968405e-05</v>
+        <v>-0.0001313752727583051</v>
       </c>
       <c r="D174" t="n">
         <v>-1</v>
@@ -3223,47 +3224,47 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_iqr</t>
+          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-4.41538795712404e-05</v>
+        <v>0.0001299788273172453</v>
       </c>
       <c r="D175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.928027945221402e-05</v>
+        <v>-0.000125867867609486</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_mean_rssi_iqr</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-3.542809281498194e-05</v>
+        <v>-0.0001255949027836323</v>
       </c>
       <c r="D177" t="n">
         <v>-1</v>
@@ -3271,47 +3272,47 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-2.826388299581595e-05</v>
+        <v>0.000121455523185432</v>
       </c>
       <c r="D178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_mean</t>
+          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-2.454332934576087e-05</v>
+        <v>0.0001204422223963775</v>
       </c>
       <c r="D179" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_trend</t>
+          <t>ap_from_ap_mean_rssi_length</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2.262201087432913e-05</v>
+        <v>9.239507198799402e-05</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -3319,31 +3320,31 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-1.812502705433872e-05</v>
+        <v>8.885009447112679e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7.346039865296916e-07</v>
+        <v>7.073969027260318e-05</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
@@ -3351,235 +3352,235 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_median</t>
+          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>-5.473376950249076e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_min</t>
+          <t>ap_from_ap_max_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>-4.66927231173031e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-4.619267929228954e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_min</t>
+          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-4.505793913267553e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_from_ap_1_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>-4.483742668526247e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>-4.215167791699059e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_max</t>
+          <t>sta_from_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>3.987829404650256e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>bss_id</t>
+          <t>ap_from_ap_mean_rssi_range</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>3.741742330021225e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>3.506885695969686e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_median</t>
+          <t>sta_from_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-3.192874282831326e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>-2.980834142363165e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>2.467888407409191e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-2.301002132298891e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-1.80780298251193e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>bss_id</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3591,11 +3592,11 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_mean</t>
+          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3607,11 +3608,11 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3623,11 +3624,11 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3639,11 +3640,11 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_range</t>
+          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3655,11 +3656,11 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3671,11 +3672,11 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_max</t>
+          <t>sta_from_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3687,11 +3688,11 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_min</t>
+          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3703,11 +3704,11 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3719,11 +3720,11 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3735,11 +3736,11 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_min</t>
+          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3751,11 +3752,11 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3767,11 +3768,11 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3783,11 +3784,11 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3799,11 +3800,11 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_range</t>
+          <t>sta_from_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3815,11 +3816,11 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_median</t>
+          <t>sta_from_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3886,59 +3887,59 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4716358780860901</v>
+        <v>0.5850922465324402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02548723109066486</v>
+        <v>0.07778633385896683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_mean</t>
+          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02514723874628544</v>
+        <v>0.03352102637290955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_max</t>
+          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02309476397931576</v>
+        <v>0.03211499005556107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_to_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0216180644929409</v>
+        <v>0.01755646057426929</v>
       </c>
     </row>
     <row r="7">
@@ -3951,150 +3952,150 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01937820762395859</v>
+        <v>0.01565925218164921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0192815288901329</v>
+        <v>0.0153241902589798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_to_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01682154089212418</v>
+        <v>0.01497836783528328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01580962724983692</v>
+        <v>0.009382966905832291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sinr</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0139551954343915</v>
+        <v>0.008719778619706631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_length</t>
+          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01267614495009184</v>
+        <v>0.008387512527406216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01258474960923195</v>
+        <v>0.007737133651971817</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_iqr</t>
+          <t>sta_from_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01127263065427542</v>
+        <v>0.007217111997306347</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_mean</t>
+          <t>ap_from_ap_mean_rssi_mean</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01006977446377277</v>
+        <v>0.007015474140644073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_median</t>
+          <t>sta_from_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.009001686237752438</v>
+        <v>0.006217559333890676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.008760917000472546</v>
+        <v>0.005219409242272377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.008677308447659016</v>
+        <v>0.004723639227449894</v>
       </c>
     </row>
     <row r="19">
@@ -4107,33 +4108,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008515574969351292</v>
+        <v>0.004680964630097151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008513370528817177</v>
+        <v>0.004638954065740108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.008239776827394962</v>
+        <v>0.00447087874636054</v>
       </c>
     </row>
     <row r="22">
@@ -4146,20 +4147,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.008173977956175804</v>
+        <v>0.003986924886703491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_sinr</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.00810225959867239</v>
+        <v>0.0036499691195786</v>
       </c>
     </row>
     <row r="24">
@@ -4172,1476 +4173,1476 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.00772653566673398</v>
+        <v>0.003504714695736766</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_trend</t>
+          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.007680449634790421</v>
+        <v>0.003455716418102384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.007537480443716049</v>
+        <v>0.003310439176857471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_median</t>
+          <t>sta_to_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007468859199434519</v>
+        <v>0.00316246529109776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007213903125375509</v>
+        <v>0.002786988159641623</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_length</t>
+          <t>sta_from_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007184154354035854</v>
+        <v>0.002768733771517873</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_trend</t>
+          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.007123920135200024</v>
+        <v>0.002764561446383595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_range</t>
+          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006937569938600063</v>
+        <v>0.002681967802345753</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_entropy</t>
+          <t>ap_from_ap_max_rssi_iqr</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00623226398602128</v>
+        <v>0.002488379133865237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_median</t>
+          <t>ap_from_ap_max_rssi_median</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.006093189120292664</v>
+        <v>0.002461665775626898</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_length</t>
+          <t>sta_to_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006030988413840532</v>
+        <v>0.002460917225107551</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sinr</t>
+          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.005843091290444136</v>
+        <v>0.002354486845433712</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005756406113505363</v>
+        <v>0.002271926030516624</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_mean</t>
+          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.005658080335706472</v>
+        <v>0.002267975127324462</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00562672596424818</v>
+        <v>0.00215268530882895</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.005480565596371889</v>
+        <v>0.002131695626303554</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_var</t>
+          <t>sta_to_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.00536394165828824</v>
+        <v>0.00211386033333838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_length</t>
+          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.005031964275985956</v>
+        <v>0.002025513676926494</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_max</t>
+          <t>sta_to_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.004785230383276939</v>
+        <v>0.001962402602657676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>ap_from_ap_max_rssi_min</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.004619901534169912</v>
+        <v>0.001958470325917006</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_var</t>
+          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.004399948753416538</v>
+        <v>0.001948282006196678</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_length</t>
+          <t>sta_to_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.003929029684513807</v>
+        <v>0.001937004970386624</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.003808619221672416</v>
+        <v>0.001908759470097721</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_0_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.003612232860177755</v>
+        <v>0.001836861600168049</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.003469621296972036</v>
+        <v>0.001640598988160491</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>protocol_tcp</t>
+          <t>ap_from_ap_max_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.003405165625736117</v>
+        <v>0.001578466384671628</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_mean_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.003370887832716107</v>
+        <v>0.001567158848047256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_mean_rssi_trend</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.003173585049808025</v>
+        <v>0.00155001855455339</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_min</t>
+          <t>sta_to_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.00309889460913837</v>
+        <v>0.001544435392133892</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_min</t>
+          <t>sta_to_ap_1_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.003055584849789739</v>
+        <v>0.001541657373309135</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.002985629020258784</v>
+        <v>0.001412823330610991</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>eirp</t>
+          <t>protocol_tcp</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.002776273060590029</v>
+        <v>0.001396665116772056</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.002683686092495918</v>
+        <v>0.001381647656671703</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_rate_of_change</t>
+          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.002648960100486875</v>
+        <v>0.001288728439249098</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>eirp</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.002607428003102541</v>
+        <v>0.001284836092963815</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.002477472182363272</v>
+        <v>0.001245699473656714</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.002399931661784649</v>
+        <v>0.00119336077477783</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_trend</t>
+          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.002323230495676398</v>
+        <v>0.001179684535600245</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.00206794124096632</v>
+        <v>0.001177241210825741</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.00190563453361392</v>
+        <v>0.001167595735751092</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_skewness</t>
+          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.001899642636999488</v>
+        <v>0.001115884282626212</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.001806703628972173</v>
+        <v>0.001085580326616764</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_sum_absolute_diff</t>
+          <t>sta_to_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001754498807713389</v>
+        <v>0.001081543741747737</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_var</t>
+          <t>sta_to_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001752717536874115</v>
+        <v>0.001075712847523391</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_median</t>
+          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.001722185988910496</v>
+        <v>0.00103067746385932</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.001658146851696074</v>
+        <v>0.0009798924438655376</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.001607778831385076</v>
+        <v>0.0009457595879212022</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.001587462495081127</v>
+        <v>0.0009304319391958416</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_kurtosis</t>
+          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.001584997749887407</v>
+        <v>0.0008919925312511623</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.00148480013012886</v>
+        <v>0.0008819721406325698</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_max</t>
+          <t>ap_from_ap_mean_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001444049528799951</v>
+        <v>0.0008623625035397708</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_range</t>
+          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001398709369823337</v>
+        <v>0.0008416846976615489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001340978662483394</v>
+        <v>0.0008344748057425022</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001272647059522569</v>
+        <v>0.0008139776764437556</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001132569508627057</v>
+        <v>0.000803678878583014</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_var</t>
+          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.001094751292839646</v>
+        <v>0.0007891284767538309</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_max</t>
+          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0009710851009003818</v>
+        <v>0.0007288483902812004</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_range</t>
+          <t>sta_to_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0009493568213656545</v>
+        <v>0.0007269789930433035</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0008990930509753525</v>
+        <v>0.0007258054101839662</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_skewness</t>
+          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0008854382904246449</v>
+        <v>0.0007127273711375892</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_kurtosis</t>
+          <t>sta_to_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.000828147865831852</v>
+        <v>0.0006892185774631798</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0008164098835550249</v>
+        <v>0.0006765120197087526</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_entropy</t>
+          <t>sta_to_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0007984681287780404</v>
+        <v>0.0006654757307842374</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_mean_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0007674412918277085</v>
+        <v>0.000650486908853054</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_to_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0007669468177482486</v>
+        <v>0.0006499234586954117</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.0007426816737279296</v>
+        <v>0.0006457464187406003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0007104554679244757</v>
+        <v>0.0006004555616527796</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0006617027684114873</v>
+        <v>0.0005919174291193485</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_iqr</t>
+          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0006253848550841212</v>
+        <v>0.0005841745878569782</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_1_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0006148265092633665</v>
+        <v>0.0005723237409256399</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_0_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0005758092738687992</v>
+        <v>0.0004907521069981158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0005684206262230873</v>
+        <v>0.0004905014648102224</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_to_ap_1_mean_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0005401956732384861</v>
+        <v>0.0004844527284149081</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0005337301408872008</v>
+        <v>0.0004822192713618279</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
+          <t>ap_from_ap_mean_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0005163343157619238</v>
+        <v>0.0004674864176195115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_max</t>
+          <t>ap_from_ap_mean_rssi_min</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0004889472620561719</v>
+        <v>0.000455342757049948</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_kurtosis</t>
+          <t>sta_to_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0004489353741519153</v>
+        <v>0.0004507392586674541</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_entropy</t>
+          <t>ap_from_ap_max_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.000434905756264925</v>
+        <v>0.0004454489971976727</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
+          <t>sta_to_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0004306825867388397</v>
+        <v>0.0004376559227239341</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_min</t>
+          <t>sta_to_ap_0_max_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0004148418665863574</v>
+        <v>0.0004353976692073047</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_range</t>
+          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0003749670286197215</v>
+        <v>0.0004327228525653481</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_length</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0003710942401085049</v>
+        <v>0.0004188794118817896</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0003644849348347634</v>
+        <v>0.0003816613170783967</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.0003584963851608336</v>
+        <v>0.0003767153539229184</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0003424320893827826</v>
+        <v>0.0003685608389787376</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>sta_from_ap_0_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.0003413438389543444</v>
+        <v>0.0003597330360207707</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_skewness</t>
+          <t>ap_from_ap_max_rssi_skewness</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0003365821030456573</v>
+        <v>0.0003517983132041991</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0003154395089950413</v>
+        <v>0.0003412339719943702</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_max_rssi_mean</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0003106045187450945</v>
+        <v>0.0003396313113626093</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>ap_from_ap_mean_rssi_skewness</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0002962047583423555</v>
+        <v>0.0003345238510519266</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0002872723271138966</v>
+        <v>0.0003167936229147017</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.0002857325598597527</v>
+        <v>0.0003078490553889424</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
+          <t>ap_from_ap_mean_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0002852613397408277</v>
+        <v>0.000307091569993645</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
+          <t>ap_from_ap_max_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0002840650267899036</v>
+        <v>0.0003039788862224668</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_range</t>
+          <t>ap_from_ap_mean_rssi_entropy</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0002774949243757874</v>
+        <v>0.0002822866954375058</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_min</t>
+          <t>sta_to_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0002721638011280447</v>
+        <v>0.0002790613216347992</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_length</t>
+          <t>sta_from_ap_0_max_ant_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0002667765074875206</v>
+        <v>0.0002765326353255659</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0002596179256215692</v>
+        <v>0.0002745375095400959</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_autocorrelation</t>
+          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.0002265836228616536</v>
+        <v>0.000273902143817395</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_rate_of_change</t>
+          <t>sta_from_ap_1_max_ant_rssi_max</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.0002217747387476265</v>
+        <v>0.0002635227865539491</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_to_ap_1_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.0001951545273186639</v>
+        <v>0.0002613125543575734</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_grouping_entropy</t>
+          <t>ap_from_ap_max_rssi_trend</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0001611411134945229</v>
+        <v>0.0002597222337499261</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0001550895831314847</v>
+        <v>0.0002239068562630564</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>sta_to_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0001480875944253057</v>
+        <v>0.0002231117978226393</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_trend</t>
+          <t>ap_from_ap_mean_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0001205846419907175</v>
+        <v>0.000220198868191801</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>sta_to_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0001173805721919052</v>
+        <v>0.0002175008121412247</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_median</t>
+          <t>ap_from_ap_max_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2.840773231582716e-05</v>
+        <v>0.0002167608472518623</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>sta_to_ap_1_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2.767807200143579e-05</v>
+        <v>0.0001972779573407024</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_1_max_ant_rssi_trend</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.286524977535009e-05</v>
+        <v>0.0001944437099155039</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_entropy</t>
+          <t>sta_to_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.0001849906548159197</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_min</t>
+          <t>sta_to_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.0001766408386174589</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_trend</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>0.0001719895517453551</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.0001705790491541848</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_median</t>
+          <t>sta_to_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>0.000170361265190877</v>
       </c>
     </row>
     <row r="138">
@@ -5654,510 +5655,510 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.0001574978232383728</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
+          <t>ap_from_ap_max_rssi_max</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>0.0001555470516905189</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
+          <t>ap_from_ap_max_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.0001535627379780635</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_la_ed_percent</t>
+          <t>ap_from_ap_mean_rssi_median</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.0001509746944066137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.0001472064177505672</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>0.0001435871527064592</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_trend</t>
+          <t>sta_to_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.0001383069902658463</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_mean_ant_rssi_trend</t>
+          <t>ap_from_ap_mean_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.0001188473324873485</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_var</t>
+          <t>ap_from_ap_max_rssi_kurtosis</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.0001144969646702521</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_to_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0001065314208972268</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
+          <t>ap_from_ap_max_rssi_range</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.0001060544673237018</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_range</t>
+          <t>sta_to_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>9.186427632812411e-05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_min</t>
+          <t>sta_from_ap_0_mean_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>8.010871533770114e-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_max</t>
+          <t>sta_to_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>7.974653999553993e-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_length</t>
+          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>7.117728819139302e-05</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
+          <t>ap_from_ap_mean_rssi_var</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>7.026382809272036e-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_autocorrelation</t>
+          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>6.905159534653649e-05</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_var</t>
+          <t>sta_from_ap_0_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>6.701238453388214e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>bss_id</t>
+          <t>sta_from_ap_1_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>6.376800592988729e-05</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
+          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>6.246600241865963e-05</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_skewness</t>
+          <t>sta_to_ap_0_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>5.967564356978983e-05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_median</t>
+          <t>ap_from_ap_mean_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>5.012859764974564e-05</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>4.337703649071045e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_trend</t>
+          <t>ap_from_ap_max_rssi_length</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>4.336245547165163e-05</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_max_rssi_var</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>4.27690138167236e-05</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_var</t>
+          <t>sta_to_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>3.945837670471519e-05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_1_mean_ant_rssi_fourier_coefficients</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>3.886492777382955e-05</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>3.81219397240784e-05</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>sta_to_ap_1_max_ant_rssi_range</t>
+          <t>sta_from_ap_1_max_ant_rssi_sum_absolute_diff</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>3.360227128723636e-05</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_var</t>
+          <t>ap_from_ap_max_rssi_entropy</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>3.008639396284707e-05</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_min</t>
+          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>2.786956247291528e-05</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_var</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>2.576506994955707e-05</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_approximate_entropy</t>
+          <t>sta_from_ap_0_mean_ant_rssi_var</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2.575314283603802e-05</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>2.458434937580023e-05</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_entropy</t>
+          <t>sta_to_ap_1_max_ant_rssi_skewness</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1.910921491798945e-05</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_trend</t>
+          <t>sta_to_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1.68925071193371e-05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_length</t>
+          <t>sta_from_ap_0_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1.552532194182277e-05</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
+          <t>sta_to_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1.524428262200672e-05</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_in_nav_ed_percent</t>
+          <t>ap_from_ap_mean_rssi_length</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>8.330835953529458e-06</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6166,11 +6167,11 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_min</t>
+          <t>sta_from_ap_1_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -6179,11 +6180,11 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_autocorrelation</t>
+          <t>sta_to_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -6192,11 +6193,11 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_entropy</t>
+          <t>ap_from_ap_mean_rssi_iqr</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6205,11 +6206,11 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_sum_absolute_diff</t>
+          <t>ap_from_ap_mean_rssi_range</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6218,11 +6219,11 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
+          <t>sta_from_ap_1_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6231,11 +6232,11 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>protocol_udp</t>
+          <t>sta_from_ap_1_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6244,11 +6245,11 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_median</t>
+          <t>sta_from_ap_1_max_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -6257,11 +6258,11 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_mean_ant_rssi_entropy</t>
+          <t>sta_from_ap_1_max_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -6270,11 +6271,11 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_max</t>
+          <t>sta_to_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6283,11 +6284,11 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ap_from_ap_mean_rssi_length</t>
+          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6296,11 +6297,11 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ap_from_ap_max_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -6309,11 +6310,11 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>sta_to_ap_0_max_ant_rssi_min</t>
+          <t>sta_from_ap_1_max_ant_rssi_median</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -6322,11 +6323,11 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_1_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -6335,11 +6336,11 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_mean</t>
+          <t>sta_from_ap_1_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -6348,11 +6349,11 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_iqr</t>
+          <t>sta_from_ap_1_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -6361,11 +6362,11 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_range</t>
+          <t>bss_id</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6374,11 +6375,11 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_max</t>
+          <t>protocol_udp</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -6387,11 +6388,11 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
+          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -6400,11 +6401,11 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
+          <t>ap_from_ap_max_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -6413,11 +6414,11 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_median</t>
+          <t>sta_from_ap_1_mean_ant_rssi_wavelet_coefficients</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -6426,11 +6427,11 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_min</t>
+          <t>sta_from_ap_0_mean_ant_rssi_range</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -6439,11 +6440,11 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_max</t>
+          <t>sta_from_ap_0_mean_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -6452,11 +6453,11 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_length</t>
+          <t>sta_from_ap_0_mean_ant_rssi_rate_of_change</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -6465,11 +6466,11 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_median</t>
+          <t>sta_from_ap_0_max_ant_rssi_in_nav_ed_percent</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -6478,11 +6479,11 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_le_nav_percent</t>
+          <t>sta_from_ap_0_max_ant_rssi_min</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -6491,11 +6492,11 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_wavelet_coefficients</t>
+          <t>sta_from_ap_0_max_ant_rssi_la_ed_percent</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -6504,11 +6505,11 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_fourier_coefficients</t>
+          <t>sta_from_ap_0_mean_ant_rssi_iqr</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -6517,11 +6518,11 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_grouping_entropy</t>
+          <t>sta_from_ap_0_max_ant_rssi_range</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -6530,11 +6531,11 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_rate_of_change</t>
+          <t>sta_from_ap_0_mean_ant_rssi_mean</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -6543,11 +6544,11 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_kurtosis</t>
+          <t>sta_from_ap_0_max_ant_rssi_grouping_entropy</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -6556,11 +6557,11 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_mean</t>
+          <t>sta_from_ap_0_mean_ant_rssi_length</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -6569,11 +6570,11 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>sta_from_ap_0_max_ant_rssi_range</t>
+          <t>sta_from_ap_0_mean_ant_rssi_le_nav_percent</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -6582,11 +6583,11 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_var</t>
+          <t>sta_from_ap_0_mean_ant_rssi_max</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -6595,11 +6596,11 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_mean</t>
+          <t>sta_from_ap_0_mean_ant_rssi_min</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -6608,11 +6609,11 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_max_ant_rssi_range</t>
+          <t>sta_from_ap_0_mean_ant_rssi_median</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -6621,11 +6622,11 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>sta_from_ap_1_mean_ant_rssi_sinr</t>
+          <t>ap_from_ap_mean_rssi_max</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -6668,10 +6669,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.071401409234678</v>
+        <v>0.0109521258249183</v>
       </c>
       <c r="C2" t="n">
-        <v>12.71148774770657</v>
+        <v>17.10702277860866</v>
       </c>
     </row>
     <row r="3">
@@ -6679,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.396741464584394</v>
+        <v>0.02345952855755893</v>
       </c>
       <c r="C3" t="n">
-        <v>9.44338761223745</v>
+        <v>11.62595517400022</v>
       </c>
     </row>
     <row r="4">
@@ -6690,10 +6691,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.423779536846288</v>
+        <v>0.01093065297685234</v>
       </c>
       <c r="C4" t="n">
-        <v>7.358799205542434</v>
+        <v>7.422481426213976</v>
       </c>
     </row>
     <row r="5">
@@ -6701,10 +6702,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.487921685865366</v>
+        <v>0.01041907356096967</v>
       </c>
       <c r="C5" t="n">
-        <v>14.4350209265472</v>
+        <v>20.33893580172884</v>
       </c>
     </row>
     <row r="6">
@@ -6712,10 +6713,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.35882337253685</v>
+        <v>0.01676304359189929</v>
       </c>
       <c r="C6" t="n">
-        <v>21.55550938874834</v>
+        <v>21.89920329769514</v>
       </c>
     </row>
   </sheetData>
@@ -6754,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9817144668023942</v>
+        <v>0.9999033188548279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8651006448917216</v>
+        <v>0.8184534818850528</v>
       </c>
     </row>
     <row r="3">
@@ -6765,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9773996211967225</v>
+        <v>0.9997787853885028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9228308010464189</v>
+        <v>0.9049953592199029</v>
       </c>
     </row>
     <row r="4">
@@ -6776,10 +6777,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9776652503582594</v>
+        <v>0.99989927574107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.933508316238332</v>
+        <v>0.9329329046854602</v>
       </c>
     </row>
     <row r="5">
@@ -6787,10 +6788,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9774660193367473</v>
+        <v>0.9999056307907577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8620164197382231</v>
+        <v>0.8055812184189006</v>
       </c>
     </row>
     <row r="6">
@@ -6798,10 +6799,118 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9875753459441576</v>
+        <v>0.9998467239953611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8040285371033334</v>
+        <v>0.8009038511165512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Search List</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>reg:squarederror</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>reg:squarederror</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[50, 100, 200]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[None, 10, 20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.01, 0.1, 0.2]</t>
+        </is>
       </c>
     </row>
   </sheetData>
